--- a/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 3,22</t>
+          <t>-7,6; 3,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 6,5</t>
+          <t>-5,12; 6,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,8</t>
+          <t>-4,67; 5,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,06</t>
+          <t>-7,2; 3,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,27</t>
+          <t>-2,65; 6,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 5,89</t>
+          <t>-12,88; 5,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 24,69</t>
+          <t>-15,79; 23,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 23,16</t>
+          <t>-14,43; 20,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 37,27</t>
+          <t>-29,03; 23,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 35,49</t>
+          <t>-9,68; 30,06</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 12,19</t>
+          <t>-1,31; 11,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 6,59</t>
+          <t>-8,55; 4,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 12,26</t>
+          <t>-3,02; 9,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,13</t>
+          <t>-5,1; 5,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 13,6</t>
+          <t>-4,27; 12,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 26,74</t>
+          <t>-2,66; 26,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 27,71</t>
+          <t>-25,79; 20,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 49,81</t>
+          <t>-10,16; 39,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 38,71</t>
+          <t>-23,81; 36,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 61,67</t>
+          <t>-15,05; 61,92</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-15,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>-10,88%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 4,07</t>
+          <t>-20,71; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 21,9</t>
+          <t>-2,78; 19,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 16,33</t>
+          <t>-6,44; 13,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 8,95</t>
+          <t>-16,53; 6,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 8,66</t>
+          <t>-34,16; 7,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 121,9</t>
+          <t>-9,88; 113,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 102,25</t>
+          <t>-26,69; 90,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 56,68</t>
+          <t>-51,54; 45,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,84</t>
+          <t>-3,67; 4,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,79</t>
+          <t>-3,04; 5,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,53</t>
+          <t>-1,61; 5,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,74</t>
+          <t>-4,38; 2,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,67</t>
+          <t>-1,43; 6,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 9,49</t>
+          <t>-6,66; 8,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 21,7</t>
+          <t>-9,71; 19,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 28,2</t>
+          <t>-5,67; 22,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 25,53</t>
+          <t>-19,5; 17,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 32,55</t>
+          <t>-5,38; 29,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,74%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-3,73%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>9,08%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.982089525674835</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5585810831627569</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.719458298952853</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.08004058736166553</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.751413603204717</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.03433106740464414</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.01819606741471223</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.05388971472387261</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.003716906985819897</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1055236537851353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 3,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 6,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 5,08</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 3,98</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 6,72</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-12,88; 5,82</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,79; 23,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; 20,15</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-29,03; 23,23</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; 30,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.130253160340764</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.353336864332511</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.804001221068783</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.044641548417383</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.366341570236699</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1179898713897293</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1526059148929432</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1093094175637391</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2419820079615573</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.08076237390394532</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.780878744576956</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.021588847529706</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.335698658878675</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.779132638790227</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.643375293049277</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.06735953512963617</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2258841584068541</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2578050207358582</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3170476233385527</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3227455088118337</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,08%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,45%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11,87%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>18,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 11,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,55; 4,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 9,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 5,82</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 12,57</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 26,38</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-25,79; 20,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 39,99</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-23,81; 36,8</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-15,05; 61,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.257370593259265</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2340573868829021</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.352650656640257</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.224289474192411</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.234970412488549</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1270719673704115</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.008280746115585118</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1876663178601068</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.06373464124938658</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.197378237443845</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-15,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,32%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,82%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-10,88%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.8209100827608626</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.610869525511228</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.318436420938165</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.528462449879052</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.062016671111376</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.01422021900278589</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2238001438929505</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.04733054199962457</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2022870839427373</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.09694430999059181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,71; 3,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 19,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 13,27</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,53; 6,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-34,16; 7,64</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 113,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-26,69; 90,37</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-51,54; 45,23</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.66717393697914</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.117223700756243</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.90236673472187</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.591254702243407</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>14.82532709841382</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2748359655956844</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2580295087320115</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4813320955817185</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.399608123568335</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.6740232856136594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,67%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-7.74605573639005</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.10367570126915</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.63658515479164</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.496556191999859</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.1407318470940037</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5472607841208172</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2550515395272315</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.06572120949719533</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 4,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 5,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 5,54</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 2,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 6,74</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 8,38</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,71; 19,83</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 22,27</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-19,5; 17,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 29,92</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.6686453684975</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.8519256466833623</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.843137702636002</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.67112075674351</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.3319849840674529</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.01751752125568609</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2407481580291586</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4875811412008314</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.96386005230227</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>23.65561115326744</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.91224197130248</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.049464301055831</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.1101917819600878</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.463894099149066</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.969348394938318</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6131188082032882</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.7030116391751551</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.811871660078102</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.712280902401371</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3756315688800915</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.27100622807866</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.01302195183924648</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.06311460757647647</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.126419311580392</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.01809997388564352</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1249426331091423</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.468652697813916</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.727346248707282</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1591485883095854</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.201388759875416</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.21472647532548</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.06173580081401339</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.09100723649540221</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.00380889408822174</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.140241086077603</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.04022255890501079</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.478872692114011</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.910424953168316</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.822889192961193</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.067948174465711</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.695604451959699</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.08659145436604715</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2258298101376485</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2950125295992437</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2243605250824761</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3214126736662375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1101,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
